--- a/Homeworks/autoservis_SWOT.xlsx
+++ b/Homeworks/autoservis_SWOT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365osu-my.sharepoint.com/personal/r18432_student_osu_cz/Documents/SWINZ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365osu-my.sharepoint.com/personal/r18432_student_osu_cz/Documents/SWINZ/ProjectSWINZ_2021/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{F13645E6-652B-420A-8FFA-18B5A9AA8A9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{73A429B1-9315-4D47-8A56-B1293274C350}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{F13645E6-652B-420A-8FFA-18B5A9AA8A9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{50D4683E-8C30-4986-9762-3E9D6D948024}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1DC2FDC1-BAA2-4258-A015-F1364347778E}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11835" xr2:uid="{1DC2FDC1-BAA2-4258-A015-F1364347778E}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -93,10 +93,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -147,14 +157,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -164,6 +168,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -478,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238D64CC-87E4-4AEA-8EE0-7B5D6B711116}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H3" sqref="H3:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,156 +501,186 @@
     <col min="6" max="6" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="I14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="A14:C14"/>
@@ -650,25 +691,8 @@
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>